--- a/Trimestre III/Normalización-EntryMC.xlsx
+++ b/Trimestre III/Normalización-EntryMC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\III Trimestre\Técnica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6de55184ee481688/Documentos/EntryMC/EntryMC/Trimestre III/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_97069AF14925A3A6AA18D5E88C3FAC15EB5F8292" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTRY.MC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -428,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,9 +629,6 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,49 +641,25 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,25 +668,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,10 +692,19 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,9 +713,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,6 +720,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,1518 +1034,1508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>44642</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>44643</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>44640</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>44639</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="I21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="I22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="I23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="I28" s="14" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="I28" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>44642</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="4">
         <v>44643</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="3" t="s">
+      <c r="J32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="3" t="s">
+      <c r="J33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>44639</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="4">
         <v>44639</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="J35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="3" t="s">
+      <c r="J36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N37" s="3" t="s">
+      <c r="J37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="H41" s="18" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="H41" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="K41" s="8" t="s">
+      <c r="I41" s="35"/>
+      <c r="K41" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="20"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="40" t="s">
+      <c r="M46" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="N46" s="41"/>
+      <c r="N46" s="30"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="M47" s="31" t="s">
+      <c r="K47" s="37"/>
+      <c r="M47" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="N47" s="31" t="s">
+      <c r="N47" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J48" s="28" t="s">
+      <c r="J48" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="K48" s="28" t="s">
+      <c r="K48" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="4">
         <v>44639</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="4">
         <v>44639</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I51" s="38"/>
-      <c r="M51" s="24" t="s">
+      <c r="I51" s="28"/>
+      <c r="M51" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="N51" s="24"/>
+      <c r="N51" s="32"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M52" s="25" t="s">
+      <c r="M52" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="N52" s="25" t="s">
+      <c r="N52" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <v>44642</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C54" s="21"/>
-      <c r="F54" s="3" t="s">
+      <c r="C54" s="12"/>
+      <c r="F54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <v>44640</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="E61" s="34" t="s">
+      <c r="C61" s="23"/>
+      <c r="E61" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="H61" s="22" t="s">
+      <c r="F61" s="24"/>
+      <c r="H61" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I61" s="22"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="23" t="s">
+      <c r="I62" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="39"/>
-      <c r="H68" s="42" t="s">
+      <c r="F68" s="26"/>
+      <c r="H68" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I68" s="42"/>
+      <c r="I68" s="31"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="26" t="s">
+      <c r="F69" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="22"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B58:N58"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="M41:N41"/>
@@ -2554,6 +2545,16 @@
     <mergeCell ref="B13:M13"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="I28:N28"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B58:N58"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="E68:F68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
